--- a/output/google_maps_data_ATM_Bantul.xlsx
+++ b/output/google_maps_data_ATM_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(021) 1500017</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-7.88216</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.88216</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.332055</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55ff9a6a3711:0xe2f0cdee0a511758!8m2!3d-7.8821603!4d110.332055!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6hwzg11?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55ff9a6a3711:0xe2f0cdee0a511758!8m2!3d-7.8821603!4d110.332055!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6hwzg11?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -552,25 +546,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>-7.888069</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.888069</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.328157</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7aff56552aa54d:0x8891807b0b7713d9!8m2!3d-7.888069!4d110.3281574!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11g6qpxnsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7aff56552aa54d:0x8891807b0b7713d9!8m2!3d-7.888069!4d110.3281574!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11g6qpxnsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -589,25 +582,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.89185</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.89185</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.329927</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Samsat+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7affd017587e43:0xca86136f6e38f7b5!8m2!3d-7.8918501!4d110.3299269!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11q7lg4wb8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Samsat+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7affd017587e43:0xca86136f6e38f7b5!8m2!3d-7.8918501!4d110.3299269!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11q7lg4wb8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -634,25 +626,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>-7.879971</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.879971</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.334181</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+-+TOKO+PURNAMA+BANTUL/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a57c867bf673d:0xa6bcf4987383d604!8m2!3d-7.8799714!4d110.3341805!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11pzykkxqk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+-+TOKO+PURNAMA+BANTUL/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a57c867bf673d:0xa6bcf4987383d604!8m2!3d-7.8799714!4d110.3341805!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11pzykkxqk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -671,25 +662,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.888841</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.888841</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.327784</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BTN/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7aff57a7e47e47:0x1ee782539849def6!8m2!3d-7.8888408!4d110.327784!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11c6tshc_h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BTN/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7aff57a7e47e47:0x1ee782539849def6!8m2!3d-7.8888408!4d110.327784!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11c6tshc_h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -712,25 +702,24 @@
           <t>(021) 29534040</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.877697</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.877697</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.334915</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a5600e4072723:0xb41e50c7ae650336!8m2!3d-7.8776971!4d110.3349152!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11btn19v04?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a5600e4072723:0xb41e50c7ae650336!8m2!3d-7.8776971!4d110.3349152!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11btn19v04?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -753,25 +742,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>-7.887269</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.887269</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.327119</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Pemkab+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55fed85b1ea9:0x694868d279af2de7!8m2!3d-7.8872692!4d110.3271192!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F1pzw68w1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Pemkab+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55fed85b1ea9:0x694868d279af2de7!8m2!3d-7.8872692!4d110.3271192!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F1pzw68w1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -794,25 +782,24 @@
           <t>(021) 0500888</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>-7.879992</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.879992</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.334279</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+Purnama+Swalayan/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a56007fb06867:0x5203c7786cee0ac4!8m2!3d-7.879992!4d110.3342789!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F1q6kk3q1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+Purnama+Swalayan/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a56007fb06867:0x5203c7786cee0ac4!8m2!3d-7.879992!4d110.3342789!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F1q6kk3q1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -831,25 +818,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>-7.885773</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.885773</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.387825</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BSI+ENHA+MART+BANTUL/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55c71142666f:0x2cdaaabcf1b607da!8m2!3d-7.8857733!4d110.387825!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11kqh_8lkn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BSI+ENHA+MART+BANTUL/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55c71142666f:0x2cdaaabcf1b607da!8m2!3d-7.8857733!4d110.387825!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11kqh_8lkn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -872,25 +858,24 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>2.2</v>
+      </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>-7.879994</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.879994</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.334265</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/atm+mandiri/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a5600820450f5:0xfcbd9391cdfb966c!8m2!3d-7.879994!4d110.334265!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6hy3m6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/atm+mandiri/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a5600820450f5:0xfcbd9391cdfb966c!8m2!3d-7.879994!4d110.334265!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6hy3m6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -909,25 +894,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.889994</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.889994</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.32608</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7aff5985df6387:0x7f3de4c20d9d5b06!8m2!3d-7.8899938!4d110.3260804!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11q8rxp2t4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7aff5985df6387:0x7f3de4c20d9d5b06!8m2!3d-7.8899938!4d110.3260804!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11q8rxp2t4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -946,25 +930,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>-7.892943</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.892943</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.338071</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BPD+Bantul+DIY/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55f127f88859:0x39c6c906385cfaf3!8m2!3d-7.8929428!4d110.3380713!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6j1j54w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BPD+Bantul+DIY/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55f127f88859:0x39c6c906385cfaf3!8m2!3d-7.8929428!4d110.3380713!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6j1j54w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -987,25 +970,24 @@
           <t>14005</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>-7.887953</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.887953</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.32889</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bukopin+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7aff56194ae7f7:0xbb37a87e9ecb68a!8m2!3d-7.8879526!4d110.3288904!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6nnxp06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1028,25 +1010,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>-7.897479</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.897479</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.345776</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM+Manding+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55edaaaaaaab:0x9e71c4f1ec8b42dc!8m2!3d-7.8974795!4d110.3457756!15sCgpBVE0gQmFudHVskgEEYmFua-ABAA!16s%2Fg%2F1ygbb7lfv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM+Manding+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55edaaaaaaab:0x9e71c4f1ec8b42dc!8m2!3d-7.8974795!4d110.3457756!15sCgpBVE0gQmFudHVskgEEYmFua-ABAA!16s%2Fg%2F1ygbb7lfv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1069,25 +1050,24 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.892878</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.892878</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.336992</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+indomaret+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55f12a8c1ed3:0xb0f9d93d689aeb68!8m2!3d-7.8928785!4d110.3369923!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6jghgs3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+indomaret+Bantul/@-7.8848617,110.187165,12z/data=!4m11!1m3!2m2!1sATM+Bantul!6e2!3m6!1s0x2e7a55f12a8c1ed3:0xb0f9d93d689aeb68!8m2!3d-7.8928785!4d110.3369923!15sCgpBVE0gQmFudHVskgEDYXRt4AEA!16s%2Fg%2F11b6jghgs3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
